--- a/data/trans_dic/P56$nadie-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$nadie-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 89,52</t>
+          <t>0,0; 90,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,03</t>
+          <t>0,0; 44,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +760,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,37</t>
+          <t>0,0; 43,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 82,19</t>
+          <t>15,45; 80,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,65</t>
+          <t>0,0; 31,8</t>
         </is>
       </c>
     </row>
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,46</t>
+          <t>0,0; 41,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +900,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 38,99</t>
+          <t>2,03; 39,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,84</t>
+          <t>0,0; 80,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 31,96</t>
+          <t>4,77; 31,41</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,24</t>
+          <t>0,0; 58,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,89</t>
+          <t>0,0; 59,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1034,7 +1035,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,12</t>
+          <t>0,0; 80,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1045,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,75</t>
+          <t>0,0; 33,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,83</t>
+          <t>0,0; 32,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,65</t>
+          <t>0,0; 30,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,22 +1145,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,2</t>
+          <t>0,0; 19,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,69</t>
+          <t>0,0; 10,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,61</t>
+          <t>0,0; 21,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 11,24</t>
+          <t>1,46; 10,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1170,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 40,65</t>
+          <t>5,33; 40,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 42,32</t>
+          <t>5,23; 43,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,6</t>
+          <t>0,0; 12,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,4</t>
+          <t>0,0; 16,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 15,09</t>
+          <t>1,66; 15,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 25,32</t>
+          <t>4,62; 24,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 8,35</t>
+          <t>1,58; 8,43</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,39</t>
+          <t>0,0; 51,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,52 +1295,52 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,99</t>
+          <t>0,0; 16,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 24,4</t>
+          <t>2,58; 25,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,88</t>
+          <t>0,0; 32,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 13,73</t>
+          <t>1,62; 15,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,35; 38,64</t>
+          <t>8,22; 36,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,49</t>
+          <t>3,23; 10,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,11</t>
+          <t>0,0; 20,9</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 9,9</t>
+          <t>1,27; 11,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 23,26</t>
+          <t>5,19; 22,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,75; 10,79</t>
+          <t>3,96; 11,57</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,16; 27,67</t>
+          <t>7,27; 26,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,87; 13,14</t>
+          <t>2,77; 12,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,72; 20,72</t>
+          <t>5,95; 21,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,98</t>
+          <t>1,14; 5,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,16; 27,67</t>
+          <t>7,27; 26,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,87; 13,14</t>
+          <t>2,77; 12,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,72; 20,72</t>
+          <t>5,95; 21,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,49</t>
+          <t>1,2; 5,88</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 16,18</t>
+          <t>1,92; 16,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,11</t>
+          <t>0,0; 8,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,2; 16,8</t>
+          <t>2,53; 18,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 10,49</t>
+          <t>2,98; 10,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,9; 18,45</t>
+          <t>5,73; 20,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 10,81</t>
+          <t>3,54; 10,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,96; 24,16</t>
+          <t>11,15; 22,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,49</t>
+          <t>2,79; 6,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,42; 15,18</t>
+          <t>5,37; 15,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,44</t>
+          <t>3,05; 8,64</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,96; 19,53</t>
+          <t>9,71; 19,48</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,68</t>
+          <t>3,4; 6,51</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que no le ayuda nadie cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2295</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5597</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1183</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1007</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1875</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5852</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2551</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 983</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1448</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4882</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2528</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1351</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1977</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1755; 9188</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3676</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1138</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3242</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3242</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2289</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 632</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1483</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3612</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1442</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1475</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4504</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>165; 3230</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1474</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2045</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7508</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>805; 5296</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3508</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4191</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1513</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1087</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1621</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1797</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5873</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 906</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3537</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5641</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5399</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 996</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1715</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1738</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2094</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3068</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3739</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1715</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5477</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3247</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5795</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4644</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5269</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>738; 5536</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>970; 7321</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1144; 9436</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3522</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6230</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1006; 9683</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2149; 11218</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1244; 6637</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1117</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3417</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6782</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3417</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7574</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6831</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5325</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1911</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4131</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>468; 4566</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5686</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1061; 9848</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2940; 12956</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2675; 8592</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5748</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1061; 9276</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3189; 14101</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4003; 11680</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8905</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6967</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11448</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2988</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8905</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6967</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>11448</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2988</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 778</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4355; 15952</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2872; 12748</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5732; 20385</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1180; 5958</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4355; 15952</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2872; 12748</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5732; 20385</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>1267; 6196</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3369</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>5831</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>5552</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>10022</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>13452</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>28613</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>10985</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>13391</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>15508</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>34444</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>16538</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>928; 7867</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6377</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1821; 13312</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2955; 10401</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5358; 18907</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7230; 21280</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19013; 38942</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>6858; 15838</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>7614; 21970</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>8616; 24439</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>23568; 47263</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>11755; 22475</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P56$nadie-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$nadie-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
